--- a/Lab01_ReviewReport.xlsx
+++ b/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivarg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivarg\Documents\GitHub\VVSS-Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA472D7-361B-40BD-B227-DD831D185FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107960BD-5625-44E9-AEB3-A2EF1E2B6326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5196" yWindow="3744" windowWidth="23040" windowHeight="13560" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -291,6 +291,18 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):30 min</t>
+  </si>
+  <si>
+    <t>Change the visibility of this constructor to "protected"</t>
+  </si>
+  <si>
+    <t>Part, line 18</t>
+  </si>
+  <si>
+    <t>public Part(int partId, String name, double price, int inStock, int min, int max)</t>
+  </si>
+  <si>
+    <t>protected Part(int partId, String name, double price, int inStock, int min, int max)</t>
   </si>
 </sst>
 </file>
@@ -1905,8 +1917,8 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="107" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2088,15 +2100,23 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
